--- a/database/data_sv.xlsx
+++ b/database/data_sv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DangKyHocPhan\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB264D-3010-42C9-93AE-5B224BECD638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31298DE-ED0F-45E5-8548-F33097AEA9B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{FD39A510-5009-43BD-BFEB-7E23CD18D4F6}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66D0D29-5864-4183-BFFE-2F8FECFCC88A}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/database/data_sv.xlsx
+++ b/database/data_sv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DangKyHocPhan\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31298DE-ED0F-45E5-8548-F33097AEA9B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6D1C01-B38C-4D35-8106-517D895ECD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{FD39A510-5009-43BD-BFEB-7E23CD18D4F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="163">
   <si>
     <t>masv</t>
   </si>
@@ -57,9 +57,6 @@
     <t>18DC001</t>
   </si>
   <si>
-    <t>Ngô Nhật Duy</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>18DC004</t>
   </si>
   <si>
-    <t>Chu Thị Thu Hải</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
@@ -88,13 +82,445 @@
   </si>
   <si>
     <t>chuhai1682@gmail.com</t>
+  </si>
+  <si>
+    <t>18DC007</t>
+  </si>
+  <si>
+    <t>18DC010</t>
+  </si>
+  <si>
+    <t>18DC013</t>
+  </si>
+  <si>
+    <t>18DC016</t>
+  </si>
+  <si>
+    <t>18DC019</t>
+  </si>
+  <si>
+    <t>18DC022</t>
+  </si>
+  <si>
+    <t>Trần Thành Danh </t>
+  </si>
+  <si>
+    <t>Phạm Quốc Đạt </t>
+  </si>
+  <si>
+    <t>Ngô Nhật Duy </t>
+  </si>
+  <si>
+    <t>Chu Thị Thu Hải </t>
+  </si>
+  <si>
+    <t>Trương Nguyễn Quang Hiển </t>
+  </si>
+  <si>
+    <t>Vòng Văn Hùng </t>
+  </si>
+  <si>
+    <t>Trương Nguyễn Quốc Hưng </t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Hưng </t>
+  </si>
+  <si>
+    <t>Thằng Quốc Hưng </t>
+  </si>
+  <si>
+    <t>Phạm Nguyễn Thanh Huy </t>
+  </si>
+  <si>
+    <t>Võ Văn Khải </t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Long </t>
+  </si>
+  <si>
+    <t>Lưu Hoàng Long </t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Nghĩa </t>
+  </si>
+  <si>
+    <t>Mai Anh Nguyên </t>
+  </si>
+  <si>
+    <t>Lê Hồng Nhân </t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Quốc </t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Quyền </t>
+  </si>
+  <si>
+    <t>Huỳnh Trung Thành </t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Tiến </t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Tiến </t>
+  </si>
+  <si>
+    <t>Hồ Thị Ái Vân Uyên </t>
+  </si>
+  <si>
+    <t>18DC002</t>
+  </si>
+  <si>
+    <t>18DC003</t>
+  </si>
+  <si>
+    <t>18DC005</t>
+  </si>
+  <si>
+    <t>18DC006</t>
+  </si>
+  <si>
+    <t>18DC008</t>
+  </si>
+  <si>
+    <t>18DC009</t>
+  </si>
+  <si>
+    <t>18DC011</t>
+  </si>
+  <si>
+    <t>18DC012</t>
+  </si>
+  <si>
+    <t>18DC014</t>
+  </si>
+  <si>
+    <t>18DC015</t>
+  </si>
+  <si>
+    <t>18DC017</t>
+  </si>
+  <si>
+    <t>18DC018</t>
+  </si>
+  <si>
+    <t>18DC020</t>
+  </si>
+  <si>
+    <t>18DC021</t>
+  </si>
+  <si>
+    <t>Thanh Hoá</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>thanhdanh@gmail.com</t>
+  </si>
+  <si>
+    <t>quocdat@gmail.com</t>
+  </si>
+  <si>
+    <t>quanghien@gmail.com</t>
+  </si>
+  <si>
+    <t>vanhung@gmail.com</t>
+  </si>
+  <si>
+    <t>quochung@gmail.com</t>
+  </si>
+  <si>
+    <t>tienhung@gmail.com</t>
+  </si>
+  <si>
+    <t>quochungthang@gmail.com</t>
+  </si>
+  <si>
+    <t>thanhhuy2120@gmail.com</t>
+  </si>
+  <si>
+    <t>vankhaivo@gmail.com</t>
+  </si>
+  <si>
+    <t>thanhlong@gmail.com</t>
+  </si>
+  <si>
+    <t>hoangtugio579@gmail.com</t>
+  </si>
+  <si>
+    <t>quocnghia@gmail.com</t>
+  </si>
+  <si>
+    <t>anhnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>hongnhan@gmail.com</t>
+  </si>
+  <si>
+    <t>anhquoc@gmail.com</t>
+  </si>
+  <si>
+    <t>thequyen@gmail.com</t>
+  </si>
+  <si>
+    <t>trungthanh@gmail.com</t>
+  </si>
+  <si>
+    <t>tientien@gmail.com</t>
+  </si>
+  <si>
+    <t>manhtien@gmail.com</t>
+  </si>
+  <si>
+    <t>vanuyen@gmail.com</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>KHMT</t>
+  </si>
+  <si>
+    <t>17DC001</t>
+  </si>
+  <si>
+    <t>17DC002</t>
+  </si>
+  <si>
+    <t>17DC003</t>
+  </si>
+  <si>
+    <t>17DC004</t>
+  </si>
+  <si>
+    <t>17DC005</t>
+  </si>
+  <si>
+    <t>17DC006</t>
+  </si>
+  <si>
+    <t>17DC007</t>
+  </si>
+  <si>
+    <t>17DC008</t>
+  </si>
+  <si>
+    <t>17DC009</t>
+  </si>
+  <si>
+    <t>17DC010</t>
+  </si>
+  <si>
+    <t>17DC011</t>
+  </si>
+  <si>
+    <t>17DC012</t>
+  </si>
+  <si>
+    <t>17DC013</t>
+  </si>
+  <si>
+    <t>17DC014</t>
+  </si>
+  <si>
+    <t>17DC015</t>
+  </si>
+  <si>
+    <t>17DC016</t>
+  </si>
+  <si>
+    <t>17DC017</t>
+  </si>
+  <si>
+    <t>17DC018</t>
+  </si>
+  <si>
+    <t>17DC019</t>
+  </si>
+  <si>
+    <t>17DC020</t>
+  </si>
+  <si>
+    <t>17DC021</t>
+  </si>
+  <si>
+    <t>17DC022</t>
+  </si>
+  <si>
+    <t>DHCN4</t>
+  </si>
+  <si>
+    <t>Trương Duy Việt</t>
+  </si>
+  <si>
+    <t>Võ Thành Đạt</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Thiện</t>
+  </si>
+  <si>
+    <t>Trần Đức Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Đinh Đức Bắc</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>Đà Lạt</t>
+  </si>
+  <si>
+    <t>Võ Hoàng Nhật</t>
+  </si>
+  <si>
+    <t>Võ Anh Thư</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>Trần Thanh Bình</t>
+  </si>
+  <si>
+    <t>Ngô Quang Hùng</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Hưng</t>
+  </si>
+  <si>
+    <t>Trịnh Nhật Anh Thư</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Quốc Văn</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Đặng Hoàng Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Yến Nhi</t>
+  </si>
+  <si>
+    <t>Bùi Đức Hoàng Lâm</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Đinh Công Hiếu</t>
+  </si>
+  <si>
+    <t>Huỳnh Phi Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Huyền</t>
+  </si>
+  <si>
+    <t>Đinh Nam Khoa</t>
+  </si>
+  <si>
+    <t>thanhhuyen@gmail.com</t>
+  </si>
+  <si>
+    <t>ngochung@gmail.com</t>
+  </si>
+  <si>
+    <t>phihung@gmail.com</t>
+  </si>
+  <si>
+    <t>quanghung@gmail.com</t>
+  </si>
+  <si>
+    <t>conghieu@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Diệp</t>
+  </si>
+  <si>
+    <t>ngocdiep@gmail.com</t>
+  </si>
+  <si>
+    <t>thanhdat@gmail.com</t>
+  </si>
+  <si>
+    <t>thanhbinh@gmail.com</t>
+  </si>
+  <si>
+    <t>ducbac@gmail.com</t>
+  </si>
+  <si>
+    <t>ducanh@gmail.com</t>
+  </si>
+  <si>
+    <t>namkhoa@gmail.com</t>
+  </si>
+  <si>
+    <t>hoanglam@gmail.com</t>
+  </si>
+  <si>
+    <t>hoanglong@gmail.com</t>
+  </si>
+  <si>
+    <t>thingoc@gmail.com</t>
+  </si>
+  <si>
+    <t>yennhi@gmail.com</t>
+  </si>
+  <si>
+    <t>hoangnhat@gmail.com</t>
+  </si>
+  <si>
+    <t>vanthien@gmail.com</t>
+  </si>
+  <si>
+    <t>anhthuvo@gmail.com</t>
+  </si>
+  <si>
+    <t>anhthutrinh@gmail.com</t>
+  </si>
+  <si>
+    <t>quocvan@gmail.com</t>
+  </si>
+  <si>
+    <t>duyviet@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngô Trọng Ơn</t>
+  </si>
+  <si>
+    <t>trongon@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +536,11 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +550,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,15 +558,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,20 +935,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66D0D29-5864-4183-BFFE-2F8FECFCC88A}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="1"/>
     <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.59765625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -496,62 +981,1280 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>36597</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>36754</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36545</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36754</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36860</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>36625</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36809</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>36601</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36758</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
+        <v>36527</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36706</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>36863</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>36655</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>36812</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36604</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36761</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2">
+        <v>36552</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2">
+        <v>36710</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>36867</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>36658</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>36887</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>36792</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2">
+        <v>36231</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2">
+        <v>36388</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2">
+        <v>36180</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2">
+        <v>36388</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2">
+        <v>36494</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="2">
+        <v>36259</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36443</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="2">
+        <v>36235</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="2">
+        <v>36758</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="2">
+        <v>36162</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="2">
+        <v>36340</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2">
+        <v>36497</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2">
+        <v>36289</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36446</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="2">
+        <v>36238</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="2">
+        <v>36395</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="2">
+        <v>36187</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="2">
+        <v>36344</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="2">
+        <v>36501</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36292</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2">
+        <v>36521</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="2">
+        <v>36426</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
